--- a/biology/Médecine/Ciro_Pollini/Ciro_Pollini.xlsx
+++ b/biology/Médecine/Ciro_Pollini/Ciro_Pollini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ciro Pollini (né à Alagna le 27 janvier 1782 et mort à Vérone le 1er février 1833) est un botaniste et médecin italien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ciro Pollini naquit en 1783 à Alagna, dans la Lomelline, et après avoir fait ses études à Pavie, professa la botanique avec distinction au lycée de Vérone. Il a publié, en deux lettres adressées au professeur Sprengel, un Voyage au lac de Garda et à Monte-Baldo (en italien), Vérone, 1816, in-8°. L’auteur y fait connaître un grand nombre d’espèces végétales non comprises dans la Flore, ou Description qu’il avait donnée des plantes nouvelles ou peu connues qui croissent dans le Vèronèse. On a encore de lui des Éléments de botanique, des Expériences sur la végétation et un Catéchisme agricole. Il mourut le 1er février 1833, à peine âgé de 50 ans.
 </t>
